--- a/Отчеты/OLAP отчет для Выпечки 13.11.2023 13.16.38.xlsx
+++ b/Отчеты/OLAP отчет для Выпечки 13.11.2023 13.16.38.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina64_Order_v2\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31855CE-9987-457C-82BB-430F1C5B86C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5AF71-1DC5-4E47-A961-02455D59C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>OLAP отчет для Выпечки</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Ленина</t>
-  </si>
-  <si>
-    <t>Магазин</t>
   </si>
   <si>
     <t>Маркс</t>
@@ -468,20 +465,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +764,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,54 +779,54 @@
     <col min="6" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="26" width="21.85546875" customWidth="1"/>
+    <col min="11" max="25" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,10 +836,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,10 +849,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -901,24 +898,21 @@
       <c r="Y5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4">
         <v>139</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2">
         <v>111</v>
       </c>
@@ -928,73 +922,70 @@
       <c r="H6" s="2">
         <v>176</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>110</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2">
+        <v>134</v>
+      </c>
+      <c r="M6" s="2">
+        <v>84</v>
+      </c>
+      <c r="N6" s="2">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2">
+        <v>86</v>
+      </c>
+      <c r="P6" s="2">
+        <v>149</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>135</v>
+      </c>
+      <c r="R6" s="2">
+        <v>44</v>
+      </c>
+      <c r="S6" s="2">
+        <v>37</v>
+      </c>
+      <c r="T6" s="2">
+        <v>129</v>
+      </c>
+      <c r="U6" s="2">
+        <v>70</v>
+      </c>
+      <c r="V6" s="2">
+        <v>96</v>
+      </c>
+      <c r="W6" s="2">
+        <v>133</v>
+      </c>
+      <c r="X6" s="2">
         <v>114</v>
       </c>
-      <c r="L6" s="2">
-        <v>78</v>
-      </c>
-      <c r="M6" s="2">
-        <v>134</v>
-      </c>
-      <c r="N6" s="2">
-        <v>84</v>
-      </c>
-      <c r="O6" s="2">
-        <v>24</v>
-      </c>
-      <c r="P6" s="2">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>149</v>
-      </c>
-      <c r="R6" s="2">
-        <v>135</v>
-      </c>
-      <c r="S6" s="2">
-        <v>44</v>
-      </c>
-      <c r="T6" s="2">
-        <v>37</v>
-      </c>
-      <c r="U6" s="2">
-        <v>129</v>
-      </c>
-      <c r="V6" s="2">
-        <v>70</v>
-      </c>
-      <c r="W6" s="2">
-        <v>96</v>
-      </c>
-      <c r="X6" s="2">
-        <v>133</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z6" s="3">
+      <c r="Y6" s="3">
         <v>2029</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
         <v>139</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2">
         <v>142</v>
       </c>
@@ -1004,73 +995,70 @@
       <c r="H7" s="2">
         <v>234</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>118</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L7" s="2">
+        <v>134</v>
+      </c>
+      <c r="M7" s="2">
+        <v>73</v>
+      </c>
+      <c r="N7" s="2">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2">
+        <v>111</v>
+      </c>
+      <c r="P7" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>208</v>
+      </c>
+      <c r="R7" s="2">
+        <v>70</v>
+      </c>
+      <c r="S7" s="2">
+        <v>20</v>
+      </c>
+      <c r="T7" s="2">
+        <v>100</v>
+      </c>
+      <c r="U7" s="2">
+        <v>141</v>
+      </c>
+      <c r="V7" s="2">
+        <v>64</v>
+      </c>
+      <c r="W7" s="2">
+        <v>205</v>
+      </c>
+      <c r="X7" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4">
         <v>121</v>
       </c>
-      <c r="M7" s="2">
-        <v>134</v>
-      </c>
-      <c r="N7" s="2">
-        <v>73</v>
-      </c>
-      <c r="O7" s="2">
-        <v>21</v>
-      </c>
-      <c r="P7" s="2">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>134</v>
-      </c>
-      <c r="R7" s="2">
-        <v>208</v>
-      </c>
-      <c r="S7" s="2">
-        <v>70</v>
-      </c>
-      <c r="T7" s="2">
-        <v>20</v>
-      </c>
-      <c r="U7" s="2">
-        <v>100</v>
-      </c>
-      <c r="V7" s="2">
-        <v>141</v>
-      </c>
-      <c r="W7" s="2">
-        <v>64</v>
-      </c>
-      <c r="X7" s="2">
-        <v>205</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>114</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7">
-        <v>121</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2">
         <v>104</v>
       </c>
@@ -1080,73 +1068,70 @@
       <c r="H8" s="2">
         <v>134</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>70</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="M8" s="2">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="N8" s="2">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="O8" s="2">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="P8" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="2">
+        <v>116</v>
+      </c>
+      <c r="R8" s="2">
+        <v>29</v>
+      </c>
+      <c r="S8" s="2">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2">
         <v>89</v>
       </c>
-      <c r="R8" s="2">
-        <v>116</v>
-      </c>
-      <c r="S8" s="2">
-        <v>29</v>
-      </c>
-      <c r="T8" s="2">
-        <v>15</v>
-      </c>
       <c r="U8" s="2">
+        <v>85</v>
+      </c>
+      <c r="V8" s="2">
+        <v>60</v>
+      </c>
+      <c r="W8" s="2">
+        <v>122</v>
+      </c>
+      <c r="X8" s="2">
         <v>89</v>
       </c>
-      <c r="V8" s="2">
-        <v>85</v>
-      </c>
-      <c r="W8" s="2">
-        <v>60</v>
-      </c>
-      <c r="X8" s="2">
-        <v>122</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Y8" s="3">
         <v>1638</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
         <v>48</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2">
         <v>54</v>
       </c>
@@ -1156,69 +1141,66 @@
       <c r="H9" s="2">
         <v>205</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>42</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L9" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2">
-        <v>99</v>
-      </c>
-      <c r="N9" s="2">
         <v>32</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>60</v>
+      </c>
       <c r="P9" s="2">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="2">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="R9" s="2">
-        <v>52</v>
-      </c>
-      <c r="S9" s="2">
         <v>31</v>
       </c>
-      <c r="T9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>53</v>
+      </c>
       <c r="U9" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="V9" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="W9" s="2">
         <v>37</v>
       </c>
       <c r="X9" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="2">
-        <v>50</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
         <v>69</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2">
         <v>79</v>
       </c>
@@ -1228,69 +1210,66 @@
       <c r="H10" s="2">
         <v>181</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>95</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="L10" s="2">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="M10" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" s="2">
         <v>67</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>83</v>
+      </c>
       <c r="P10" s="2">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="2">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="R10" s="2">
-        <v>109</v>
-      </c>
-      <c r="S10" s="2">
         <v>53</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>103</v>
+      </c>
       <c r="U10" s="2">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="V10" s="2">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="W10" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="X10" s="2">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="2">
         <v>86</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Y10" s="3">
         <v>1599</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4">
         <v>192</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2">
         <v>185</v>
       </c>
@@ -1300,73 +1279,70 @@
       <c r="H11" s="2">
         <v>246</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="L11" s="2">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="M11" s="2">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="N11" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="O11" s="2">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="P11" s="2">
-        <v>179</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="2">
-        <v>381</v>
+        <v>173</v>
       </c>
       <c r="R11" s="2">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="S11" s="2">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T11" s="2">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="U11" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="V11" s="2">
+        <v>79</v>
+      </c>
+      <c r="W11" s="2">
         <v>99</v>
       </c>
-      <c r="W11" s="2">
-        <v>79</v>
-      </c>
       <c r="X11" s="2">
-        <v>99</v>
-      </c>
-      <c r="Y11" s="2">
         <v>169</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Y11" s="3">
         <v>2781</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
         <v>123</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2">
         <v>52</v>
       </c>
@@ -1376,73 +1352,70 @@
       <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>65</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="N12" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O12" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="P12" s="2">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="2">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="R12" s="2">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="S12" s="2">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T12" s="2">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="U12" s="2">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="V12" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="W12" s="2">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="X12" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y12" s="2">
         <v>55</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Y12" s="3">
         <v>1302</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2">
         <v>14</v>
       </c>
@@ -1452,73 +1425,70 @@
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>15</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M13" s="2">
         <v>15</v>
       </c>
       <c r="N13" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O13" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P13" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>13</v>
+      </c>
+      <c r="R13" s="2">
+        <v>6</v>
+      </c>
+      <c r="S13" s="2">
+        <v>7</v>
+      </c>
+      <c r="T13" s="2">
+        <v>21</v>
+      </c>
+      <c r="U13" s="2">
         <v>8</v>
       </c>
-      <c r="Q13" s="2">
-        <v>23</v>
-      </c>
-      <c r="R13" s="2">
+      <c r="V13" s="2">
+        <v>6</v>
+      </c>
+      <c r="W13" s="2">
+        <v>11</v>
+      </c>
+      <c r="X13" s="2">
         <v>13</v>
       </c>
-      <c r="S13" s="2">
-        <v>6</v>
-      </c>
-      <c r="T13" s="2">
-        <v>7</v>
-      </c>
-      <c r="U13" s="2">
-        <v>21</v>
-      </c>
-      <c r="V13" s="2">
-        <v>8</v>
-      </c>
-      <c r="W13" s="2">
-        <v>6</v>
-      </c>
-      <c r="X13" s="2">
-        <v>11</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="3">
+      <c r="Y13" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4">
         <v>312</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2">
         <v>136</v>
       </c>
@@ -1528,73 +1498,70 @@
       <c r="H14" s="2">
         <v>152</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>196</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="L14" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="M14" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="N14" s="2">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="O14" s="2">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="P14" s="2">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="2">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="R14" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="S14" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="T14" s="2">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="U14" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="V14" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="W14" s="2">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="X14" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y14" s="2">
         <v>135</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Y14" s="3">
         <v>2777</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4">
         <v>35</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2">
         <v>26</v>
       </c>
@@ -1604,73 +1571,70 @@
       <c r="H15" s="2">
         <v>21</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>30</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N15" s="2">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2">
         <v>15</v>
       </c>
-      <c r="O15" s="2">
-        <v>6</v>
-      </c>
       <c r="P15" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>22</v>
+      </c>
+      <c r="R15" s="2">
+        <v>9</v>
+      </c>
+      <c r="S15" s="2">
+        <v>4</v>
+      </c>
+      <c r="T15" s="2">
+        <v>33</v>
+      </c>
+      <c r="U15" s="2">
         <v>15</v>
       </c>
-      <c r="Q15" s="2">
-        <v>40</v>
-      </c>
-      <c r="R15" s="2">
+      <c r="V15" s="2">
+        <v>28</v>
+      </c>
+      <c r="W15" s="2">
         <v>22</v>
       </c>
-      <c r="S15" s="2">
-        <v>9</v>
-      </c>
-      <c r="T15" s="2">
-        <v>4</v>
-      </c>
-      <c r="U15" s="2">
-        <v>33</v>
-      </c>
-      <c r="V15" s="2">
-        <v>15</v>
-      </c>
-      <c r="W15" s="2">
-        <v>28</v>
-      </c>
       <c r="X15" s="2">
-        <v>22</v>
-      </c>
-      <c r="Y15" s="2">
         <v>16</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Y15" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4">
         <v>27</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -1680,73 +1644,70 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L16" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M16" s="2">
         <v>15</v>
       </c>
       <c r="N16" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>13</v>
+      </c>
+      <c r="R16" s="2">
         <v>6</v>
       </c>
-      <c r="P16" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>32</v>
-      </c>
-      <c r="R16" s="2">
-        <v>13</v>
-      </c>
       <c r="S16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="U16" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="V16" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="W16" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X16" s="2">
         <v>16</v>
       </c>
-      <c r="Y16" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="3">
+      <c r="Y16" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
         <v>78</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2">
         <v>35</v>
       </c>
@@ -1756,73 +1717,70 @@
       <c r="H17" s="2">
         <v>33</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>36</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L17" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M17" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N17" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="O17" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P17" s="2">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="2">
+        <v>17</v>
+      </c>
+      <c r="R17" s="2">
+        <v>12</v>
+      </c>
+      <c r="S17" s="2">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2">
+        <v>64</v>
+      </c>
+      <c r="U17" s="2">
+        <v>14</v>
+      </c>
+      <c r="V17" s="2">
+        <v>43</v>
+      </c>
+      <c r="W17" s="2">
+        <v>17</v>
+      </c>
+      <c r="X17" s="2">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4">
         <v>70</v>
       </c>
-      <c r="R17" s="2">
-        <v>17</v>
-      </c>
-      <c r="S17" s="2">
-        <v>12</v>
-      </c>
-      <c r="T17" s="2">
-        <v>9</v>
-      </c>
-      <c r="U17" s="2">
-        <v>64</v>
-      </c>
-      <c r="V17" s="2">
-        <v>14</v>
-      </c>
-      <c r="W17" s="2">
-        <v>43</v>
-      </c>
-      <c r="X17" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7">
-        <v>70</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2">
         <v>56</v>
       </c>
@@ -1832,73 +1790,70 @@
       <c r="H18" s="2">
         <v>112</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>53</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M18" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="O18" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="2">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="R18" s="2">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="S18" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T18" s="2">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="U18" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="V18" s="2">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="W18" s="2">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="X18" s="2">
+        <v>68</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y18" s="2">
-        <v>68</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4">
         <v>218</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2">
         <v>149</v>
       </c>
@@ -1908,73 +1863,70 @@
       <c r="H19" s="2">
         <v>254</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>125</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="L19" s="2">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M19" s="2">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="N19" s="2">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="O19" s="2">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="P19" s="2">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="2">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="R19" s="2">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="S19" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="T19" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="U19" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="V19" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="W19" s="2">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="X19" s="2">
-        <v>88</v>
-      </c>
-      <c r="Y19" s="2">
         <v>148</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Y19" s="3">
         <v>2669</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="7">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2">
         <v>6</v>
       </c>
@@ -1984,73 +1936,70 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>13</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L20" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20" s="2">
+        <v>7</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="2">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
-        <v>7</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="R20" s="2">
+        <v>5</v>
+      </c>
+      <c r="S20" s="2">
         <v>3</v>
       </c>
-      <c r="P20" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>21</v>
-      </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
+        <v>14</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2</v>
+      </c>
+      <c r="V20" s="2">
         <v>11</v>
       </c>
-      <c r="S20" s="2">
-        <v>5</v>
-      </c>
-      <c r="T20" s="2">
-        <v>3</v>
-      </c>
-      <c r="U20" s="2">
-        <v>14</v>
-      </c>
-      <c r="V20" s="2">
-        <v>2</v>
-      </c>
       <c r="W20" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X20" s="2">
         <v>8</v>
       </c>
-      <c r="Y20" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Y20" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="7">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -2060,73 +2009,70 @@
       <c r="H21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>24</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2">
+        <v>11</v>
+      </c>
+      <c r="L21" s="2">
         <v>14</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
+        <v>17</v>
+      </c>
+      <c r="N21" s="2">
+        <v>9</v>
+      </c>
+      <c r="O21" s="2">
+        <v>8</v>
+      </c>
+      <c r="P21" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="2">
         <v>11</v>
       </c>
-      <c r="M21" s="2">
-        <v>14</v>
-      </c>
-      <c r="N21" s="2">
-        <v>17</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="R21" s="2">
+        <v>6</v>
+      </c>
+      <c r="S21" s="2">
         <v>9</v>
       </c>
-      <c r="P21" s="2">
+      <c r="T21" s="2">
+        <v>44</v>
+      </c>
+      <c r="U21" s="2">
+        <v>6</v>
+      </c>
+      <c r="V21" s="2">
+        <v>21</v>
+      </c>
+      <c r="W21" s="2">
+        <v>11</v>
+      </c>
+      <c r="X21" s="2">
         <v>8</v>
       </c>
-      <c r="Q21" s="2">
-        <v>26</v>
-      </c>
-      <c r="R21" s="2">
-        <v>11</v>
-      </c>
-      <c r="S21" s="2">
-        <v>6</v>
-      </c>
-      <c r="T21" s="2">
-        <v>9</v>
-      </c>
-      <c r="U21" s="2">
-        <v>44</v>
-      </c>
-      <c r="V21" s="2">
-        <v>6</v>
-      </c>
-      <c r="W21" s="2">
-        <v>21</v>
-      </c>
-      <c r="X21" s="2">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Y21" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="7">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4">
         <v>22</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2">
         <v>22</v>
       </c>
@@ -2136,73 +2082,70 @@
       <c r="H22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>13</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L22" s="2">
+        <v>18</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4</v>
+      </c>
+      <c r="O22" s="2">
+        <v>8</v>
+      </c>
+      <c r="P22" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2">
+        <v>12</v>
+      </c>
+      <c r="S22" s="2">
+        <v>6</v>
+      </c>
+      <c r="T22" s="2">
+        <v>20</v>
+      </c>
+      <c r="U22" s="2">
+        <v>17</v>
+      </c>
+      <c r="V22" s="2">
         <v>10</v>
       </c>
-      <c r="M22" s="2">
-        <v>18</v>
-      </c>
-      <c r="N22" s="2">
-        <v>12</v>
-      </c>
-      <c r="O22" s="2">
-        <v>4</v>
-      </c>
-      <c r="P22" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>33</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="W22" s="2">
         <v>16</v>
-      </c>
-      <c r="S22" s="2">
-        <v>12</v>
-      </c>
-      <c r="T22" s="2">
-        <v>6</v>
-      </c>
-      <c r="U22" s="2">
-        <v>20</v>
-      </c>
-      <c r="V22" s="2">
-        <v>17</v>
-      </c>
-      <c r="W22" s="2">
-        <v>10</v>
       </c>
       <c r="X22" s="2">
         <v>16</v>
       </c>
-      <c r="Y22" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Y22" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="7">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4">
         <v>200</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2">
         <v>213</v>
       </c>
@@ -2212,69 +2155,66 @@
       <c r="H23" s="2">
         <v>586</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>117</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L23" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2">
-        <v>227</v>
-      </c>
-      <c r="N23" s="2">
         <v>151</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
+        <v>202</v>
+      </c>
       <c r="P23" s="2">
-        <v>202</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="2">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="R23" s="2">
-        <v>228</v>
-      </c>
-      <c r="S23" s="2">
         <v>125</v>
       </c>
-      <c r="T23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>169</v>
+      </c>
       <c r="U23" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="V23" s="2">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="W23" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="X23" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y23" s="2">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Y23" s="3">
         <v>3494</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4">
         <v>38</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2">
         <v>101</v>
       </c>
@@ -2284,69 +2224,66 @@
       <c r="H24" s="2">
         <v>261</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>33</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="L24" s="2">
+        <v>137</v>
+      </c>
+      <c r="M24" s="2">
         <v>31</v>
       </c>
-      <c r="M24" s="2">
-        <v>137</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>47</v>
+      </c>
+      <c r="P24" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" s="2">
         <v>31</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>140</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>94</v>
+      </c>
+      <c r="U24" s="2">
+        <v>59</v>
+      </c>
+      <c r="V24" s="2">
         <v>37</v>
-      </c>
-      <c r="S24" s="2">
-        <v>31</v>
-      </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2">
-        <v>94</v>
-      </c>
-      <c r="V24" s="2">
-        <v>59</v>
       </c>
       <c r="W24" s="2">
         <v>37</v>
       </c>
       <c r="X24" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y24" s="2">
         <v>64</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Y24" s="3">
         <v>1247</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="7">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4">
         <v>287</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2">
         <v>246</v>
       </c>
@@ -2356,73 +2293,70 @@
       <c r="H25" s="2">
         <v>501</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>192</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="L25" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M25" s="2">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="N25" s="2">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="O25" s="2">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="P25" s="2">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="2">
-        <v>461</v>
+        <v>287</v>
       </c>
       <c r="R25" s="2">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="S25" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="T25" s="2">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="U25" s="2">
-        <v>398</v>
+        <v>259</v>
       </c>
       <c r="V25" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="W25" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="X25" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y25" s="2">
         <v>302</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Y25" s="3">
         <v>4830</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="7">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4">
         <v>94</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2">
         <v>63</v>
       </c>
@@ -2432,73 +2366,70 @@
       <c r="H26" s="2">
         <v>89</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>50</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L26" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M26" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N26" s="2">
+        <v>17</v>
+      </c>
+      <c r="O26" s="2">
+        <v>54</v>
+      </c>
+      <c r="P26" s="2">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>74</v>
+      </c>
+      <c r="R26" s="2">
         <v>42</v>
       </c>
-      <c r="O26" s="2">
-        <v>17</v>
-      </c>
-      <c r="P26" s="2">
+      <c r="S26" s="2">
+        <v>28</v>
+      </c>
+      <c r="T26" s="2">
+        <v>96</v>
+      </c>
+      <c r="U26" s="2">
+        <v>62</v>
+      </c>
+      <c r="V26" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" s="2">
+        <v>66</v>
+      </c>
+      <c r="X26" s="2">
         <v>54</v>
       </c>
-      <c r="Q26" s="2">
-        <v>131</v>
-      </c>
-      <c r="R26" s="2">
-        <v>74</v>
-      </c>
-      <c r="S26" s="2">
-        <v>42</v>
-      </c>
-      <c r="T26" s="2">
-        <v>28</v>
-      </c>
-      <c r="U26" s="2">
-        <v>96</v>
-      </c>
-      <c r="V26" s="2">
-        <v>62</v>
-      </c>
-      <c r="W26" s="2">
-        <v>77</v>
-      </c>
-      <c r="X26" s="2">
-        <v>66</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>54</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Y26" s="3">
         <v>1217</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="7">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4">
         <v>21</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2">
         <v>31</v>
       </c>
@@ -2508,73 +2439,70 @@
       <c r="H27" s="2">
         <v>45</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>16</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="2">
         <v>26</v>
       </c>
       <c r="M27" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N27" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O27" s="2">
+        <v>15</v>
+      </c>
+      <c r="P27" s="2">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>18</v>
+      </c>
+      <c r="R27" s="2">
+        <v>10</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>33</v>
+      </c>
+      <c r="U27" s="2">
+        <v>27</v>
+      </c>
+      <c r="V27" s="2">
+        <v>20</v>
+      </c>
+      <c r="W27" s="2">
+        <v>18</v>
+      </c>
+      <c r="X27" s="2">
         <v>8</v>
       </c>
-      <c r="P27" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>69</v>
-      </c>
-      <c r="R27" s="2">
-        <v>18</v>
-      </c>
-      <c r="S27" s="2">
-        <v>10</v>
-      </c>
-      <c r="T27" s="2">
-        <v>1</v>
-      </c>
-      <c r="U27" s="2">
-        <v>33</v>
-      </c>
-      <c r="V27" s="2">
-        <v>27</v>
-      </c>
-      <c r="W27" s="2">
-        <v>20</v>
-      </c>
-      <c r="X27" s="2">
-        <v>18</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Y27" s="3">
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="7">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4">
         <v>25</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2">
         <v>45</v>
       </c>
@@ -2584,73 +2512,70 @@
       <c r="H28" s="2">
         <v>73</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <v>44</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L28" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M28" s="2">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N28" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="O28" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P28" s="2">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="Q28" s="2">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="R28" s="2">
+        <v>15</v>
+      </c>
+      <c r="S28" s="2">
+        <v>8</v>
+      </c>
+      <c r="T28" s="2">
+        <v>50</v>
+      </c>
+      <c r="U28" s="2">
+        <v>13</v>
+      </c>
+      <c r="V28" s="2">
+        <v>42</v>
+      </c>
+      <c r="W28" s="2">
+        <v>28</v>
+      </c>
+      <c r="X28" s="2">
         <v>31</v>
       </c>
-      <c r="S28" s="2">
-        <v>15</v>
-      </c>
-      <c r="T28" s="2">
-        <v>8</v>
-      </c>
-      <c r="U28" s="2">
-        <v>50</v>
-      </c>
-      <c r="V28" s="2">
+      <c r="Y28" s="3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4">
         <v>13</v>
       </c>
-      <c r="W28" s="2">
-        <v>42</v>
-      </c>
-      <c r="X28" s="2">
-        <v>28</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="7">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2">
         <v>27</v>
       </c>
@@ -2660,73 +2585,70 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <v>12</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
+        <v>19</v>
+      </c>
+      <c r="M29" s="2">
+        <v>7</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>11</v>
+      </c>
+      <c r="P29" s="2">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>16</v>
+      </c>
+      <c r="R29" s="2">
+        <v>9</v>
+      </c>
+      <c r="S29" s="2">
+        <v>4</v>
+      </c>
+      <c r="T29" s="2">
+        <v>17</v>
+      </c>
+      <c r="U29" s="2">
+        <v>20</v>
+      </c>
+      <c r="V29" s="2">
+        <v>11</v>
+      </c>
+      <c r="W29" s="2">
         <v>10</v>
       </c>
-      <c r="M29" s="2">
-        <v>19</v>
-      </c>
-      <c r="N29" s="2">
-        <v>7</v>
-      </c>
-      <c r="O29" s="2">
-        <v>4</v>
-      </c>
-      <c r="P29" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>43</v>
-      </c>
-      <c r="R29" s="2">
-        <v>16</v>
-      </c>
-      <c r="S29" s="2">
-        <v>9</v>
-      </c>
-      <c r="T29" s="2">
-        <v>4</v>
-      </c>
-      <c r="U29" s="2">
-        <v>17</v>
-      </c>
-      <c r="V29" s="2">
-        <v>20</v>
-      </c>
-      <c r="W29" s="2">
-        <v>11</v>
-      </c>
       <c r="X29" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="2">
         <v>18</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Y29" s="3">
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4">
         <v>98</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2">
         <v>257</v>
       </c>
@@ -2736,73 +2658,70 @@
       <c r="H30" s="2">
         <v>527</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>69</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L30" s="2">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="M30" s="2">
-        <v>394</v>
+        <v>49</v>
       </c>
       <c r="N30" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O30" s="2">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="P30" s="2">
-        <v>186</v>
+        <v>441</v>
       </c>
       <c r="Q30" s="2">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="R30" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="S30" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="U30" s="2">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="V30" s="2">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="W30" s="2">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="X30" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y30" s="2">
         <v>178</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Y30" s="3">
         <v>3338</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="7">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4">
         <v>36</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2">
         <v>135</v>
       </c>
@@ -2812,73 +2731,70 @@
       <c r="H31" s="2">
         <v>156</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <v>33</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L31" s="2">
+        <v>110</v>
+      </c>
+      <c r="M31" s="2">
+        <v>24</v>
+      </c>
+      <c r="N31" s="2">
+        <v>19</v>
+      </c>
+      <c r="O31" s="2">
+        <v>79</v>
+      </c>
+      <c r="P31" s="2">
+        <v>116</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>74</v>
+      </c>
+      <c r="R31" s="2">
         <v>41</v>
       </c>
-      <c r="M31" s="2">
-        <v>110</v>
-      </c>
-      <c r="N31" s="2">
-        <v>24</v>
-      </c>
-      <c r="O31" s="2">
-        <v>19</v>
-      </c>
-      <c r="P31" s="2">
+      <c r="S31" s="2">
+        <v>31</v>
+      </c>
+      <c r="T31" s="2">
+        <v>40</v>
+      </c>
+      <c r="U31" s="2">
+        <v>50</v>
+      </c>
+      <c r="V31" s="2">
+        <v>41</v>
+      </c>
+      <c r="W31" s="2">
         <v>79</v>
       </c>
-      <c r="Q31" s="2">
-        <v>116</v>
-      </c>
-      <c r="R31" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" s="2">
-        <v>41</v>
-      </c>
-      <c r="T31" s="2">
-        <v>31</v>
-      </c>
-      <c r="U31" s="2">
-        <v>40</v>
-      </c>
-      <c r="V31" s="2">
-        <v>50</v>
-      </c>
-      <c r="W31" s="2">
-        <v>41</v>
-      </c>
       <c r="X31" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" s="2">
         <v>56</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Y31" s="3">
         <v>1209</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="7">
+        <v>29</v>
+      </c>
+      <c r="D32" s="4">
         <v>25</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2">
         <v>68</v>
       </c>
@@ -2888,73 +2804,70 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>20</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2">
+        <v>28</v>
+      </c>
+      <c r="L32" s="2">
+        <v>77</v>
+      </c>
+      <c r="M32" s="2">
+        <v>17</v>
+      </c>
+      <c r="N32" s="2">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2">
+        <v>66</v>
+      </c>
+      <c r="P32" s="2">
+        <v>102</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>48</v>
+      </c>
+      <c r="R32" s="2">
+        <v>42</v>
+      </c>
+      <c r="S32" s="2">
         <v>21</v>
       </c>
-      <c r="L32" s="2">
-        <v>28</v>
-      </c>
-      <c r="M32" s="2">
-        <v>77</v>
-      </c>
-      <c r="N32" s="2">
-        <v>17</v>
-      </c>
-      <c r="O32" s="2">
-        <v>20</v>
-      </c>
-      <c r="P32" s="2">
-        <v>66</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>102</v>
-      </c>
-      <c r="R32" s="2">
-        <v>48</v>
-      </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
+        <v>34</v>
+      </c>
+      <c r="U32" s="2">
+        <v>24</v>
+      </c>
+      <c r="V32" s="2">
+        <v>30</v>
+      </c>
+      <c r="W32" s="2">
+        <v>61</v>
+      </c>
+      <c r="X32" s="2">
         <v>42</v>
       </c>
-      <c r="T32" s="2">
-        <v>21</v>
-      </c>
-      <c r="U32" s="2">
-        <v>34</v>
-      </c>
-      <c r="V32" s="2">
-        <v>24</v>
-      </c>
-      <c r="W32" s="2">
-        <v>30</v>
-      </c>
-      <c r="X32" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Y32" s="3">
         <v>854</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="7">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4">
         <v>23</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2">
         <v>32</v>
       </c>
@@ -2964,73 +2877,70 @@
       <c r="H33" s="2">
         <v>38</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>23</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2">
+        <v>27</v>
+      </c>
+      <c r="M33" s="2">
+        <v>20</v>
+      </c>
+      <c r="N33" s="2">
+        <v>11</v>
+      </c>
+      <c r="O33" s="2">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>23</v>
+      </c>
+      <c r="R33" s="2">
+        <v>9</v>
+      </c>
+      <c r="S33" s="2">
+        <v>10</v>
+      </c>
+      <c r="T33" s="2">
+        <v>41</v>
+      </c>
+      <c r="U33" s="2">
+        <v>12</v>
+      </c>
+      <c r="V33" s="2">
         <v>16</v>
       </c>
-      <c r="M33" s="2">
-        <v>27</v>
-      </c>
-      <c r="N33" s="2">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2">
-        <v>11</v>
-      </c>
-      <c r="P33" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>46</v>
-      </c>
-      <c r="R33" s="2">
-        <v>23</v>
-      </c>
-      <c r="S33" s="2">
-        <v>9</v>
-      </c>
-      <c r="T33" s="2">
-        <v>10</v>
-      </c>
-      <c r="U33" s="2">
-        <v>41</v>
-      </c>
-      <c r="V33" s="2">
-        <v>12</v>
-      </c>
       <c r="W33" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X33" s="2">
-        <v>14</v>
-      </c>
-      <c r="Y33" s="2">
         <v>22</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Y33" s="3">
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="7">
+        <v>29</v>
+      </c>
+      <c r="D34" s="4">
         <v>42</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2">
         <v>45</v>
       </c>
@@ -3040,67 +2950,64 @@
       <c r="H34" s="2">
         <v>57</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <v>27</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L34" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M34" s="2">
-        <v>39</v>
-      </c>
-      <c r="N34" s="2">
         <v>26</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2">
         <v>43</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2">
+        <v>43</v>
+      </c>
       <c r="R34" s="2">
-        <v>43</v>
-      </c>
-      <c r="S34" s="2">
         <v>28</v>
       </c>
-      <c r="T34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2">
+        <v>41</v>
+      </c>
       <c r="U34" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="V34" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="W34" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="X34" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y34" s="2">
         <v>22</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Y34" s="3">
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="7">
+        <v>29</v>
+      </c>
+      <c r="D35" s="4">
         <v>42</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2">
         <v>61</v>
       </c>
@@ -3110,73 +3017,70 @@
       <c r="H35" s="2">
         <v>46</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <v>33</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2">
+        <v>26</v>
+      </c>
+      <c r="L35" s="2">
+        <v>64</v>
+      </c>
+      <c r="M35" s="2">
+        <v>20</v>
+      </c>
+      <c r="N35" s="2">
+        <v>13</v>
+      </c>
+      <c r="O35" s="2">
+        <v>35</v>
+      </c>
+      <c r="P35" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>63</v>
+      </c>
+      <c r="R35" s="2">
+        <v>20</v>
+      </c>
+      <c r="S35" s="2">
+        <v>7</v>
+      </c>
+      <c r="T35" s="2">
+        <v>43</v>
+      </c>
+      <c r="U35" s="2">
+        <v>24</v>
+      </c>
+      <c r="V35" s="2">
+        <v>34</v>
+      </c>
+      <c r="W35" s="2">
+        <v>97</v>
+      </c>
+      <c r="X35" s="2">
+        <v>56</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="2">
-        <v>26</v>
-      </c>
-      <c r="M35" s="2">
-        <v>64</v>
-      </c>
-      <c r="N35" s="2">
-        <v>20</v>
-      </c>
-      <c r="O35" s="2">
-        <v>13</v>
-      </c>
-      <c r="P35" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>51</v>
-      </c>
-      <c r="R35" s="2">
-        <v>63</v>
-      </c>
-      <c r="S35" s="2">
-        <v>20</v>
-      </c>
-      <c r="T35" s="2">
-        <v>7</v>
-      </c>
-      <c r="U35" s="2">
-        <v>43</v>
-      </c>
-      <c r="V35" s="2">
-        <v>24</v>
-      </c>
-      <c r="W35" s="2">
-        <v>34</v>
-      </c>
-      <c r="X35" s="2">
-        <v>97</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>56</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="7">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4">
         <v>129</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2">
         <v>216</v>
       </c>
@@ -3186,73 +3090,70 @@
       <c r="H36" s="2">
         <v>318</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <v>80</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="L36" s="2">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="M36" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="N36" s="2">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="O36" s="2">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="P36" s="2">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="Q36" s="2">
-        <v>460</v>
+        <v>143</v>
       </c>
       <c r="R36" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="S36" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="T36" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="U36" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="V36" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="W36" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="X36" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y36" s="2">
         <v>116</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Y36" s="3">
         <v>2682</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="7">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4">
         <v>39</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2">
         <v>47</v>
       </c>
@@ -3262,73 +3163,70 @@
       <c r="H37" s="2">
         <v>49</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <v>21</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L37" s="2">
+        <v>54</v>
+      </c>
+      <c r="M37" s="2">
+        <v>16</v>
+      </c>
+      <c r="N37" s="2">
+        <v>6</v>
+      </c>
+      <c r="O37" s="2">
         <v>27</v>
       </c>
-      <c r="M37" s="2">
-        <v>54</v>
-      </c>
-      <c r="N37" s="2">
-        <v>16</v>
-      </c>
-      <c r="O37" s="2">
-        <v>6</v>
-      </c>
       <c r="P37" s="2">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="2">
         <v>27</v>
       </c>
-      <c r="Q37" s="2">
-        <v>101</v>
-      </c>
       <c r="R37" s="2">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="S37" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="U37" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V37" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="W37" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X37" s="2">
-        <v>29</v>
-      </c>
-      <c r="Y37" s="2">
         <v>15</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Y37" s="3">
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="7">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4">
         <v>117</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2">
         <v>164</v>
       </c>
@@ -3338,73 +3236,70 @@
       <c r="H38" s="2">
         <v>219</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <v>51</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2">
+        <v>128</v>
+      </c>
+      <c r="L38" s="2">
+        <v>161</v>
+      </c>
+      <c r="M38" s="2">
+        <v>42</v>
+      </c>
+      <c r="N38" s="2">
+        <v>27</v>
+      </c>
+      <c r="O38" s="2">
+        <v>119</v>
+      </c>
+      <c r="P38" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>141</v>
+      </c>
+      <c r="R38" s="2">
+        <v>53</v>
+      </c>
+      <c r="S38" s="2">
+        <v>21</v>
+      </c>
+      <c r="T38" s="2">
+        <v>94</v>
+      </c>
+      <c r="U38" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" s="2">
+        <v>104</v>
+      </c>
+      <c r="W38" s="2">
+        <v>88</v>
+      </c>
+      <c r="X38" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L38" s="2">
-        <v>128</v>
-      </c>
-      <c r="M38" s="2">
-        <v>161</v>
-      </c>
-      <c r="N38" s="2">
-        <v>42</v>
-      </c>
-      <c r="O38" s="2">
-        <v>27</v>
-      </c>
-      <c r="P38" s="2">
-        <v>119</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>260</v>
-      </c>
-      <c r="R38" s="2">
-        <v>141</v>
-      </c>
-      <c r="S38" s="2">
-        <v>53</v>
-      </c>
-      <c r="T38" s="2">
-        <v>21</v>
-      </c>
-      <c r="U38" s="2">
-        <v>94</v>
-      </c>
-      <c r="V38" s="2">
-        <v>73</v>
-      </c>
-      <c r="W38" s="2">
-        <v>104</v>
-      </c>
-      <c r="X38" s="2">
-        <v>88</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="7">
+        <v>29</v>
+      </c>
+      <c r="D39" s="4">
         <v>64</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2">
         <v>62</v>
       </c>
@@ -3414,113 +3309,109 @@
       <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <v>50</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L39" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M39" s="2">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N39" s="2">
+        <v>14</v>
+      </c>
+      <c r="O39" s="2">
+        <v>56</v>
+      </c>
+      <c r="P39" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>18</v>
+      </c>
+      <c r="R39" s="2">
+        <v>22</v>
+      </c>
+      <c r="S39" s="2">
         <v>19</v>
       </c>
-      <c r="O39" s="2">
-        <v>14</v>
-      </c>
-      <c r="P39" s="2">
-        <v>56</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>115</v>
-      </c>
-      <c r="R39" s="2">
-        <v>18</v>
-      </c>
-      <c r="S39" s="2">
-        <v>22</v>
-      </c>
       <c r="T39" s="2">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="U39" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="V39" s="2">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="W39" s="2">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="X39" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="2">
         <v>43</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="Y39" s="3">
         <v>938</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2">
+      <c r="M40" s="2">
         <v>1</v>
       </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2">
+      <c r="Q40" s="2">
         <v>2</v>
       </c>
+      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="3">
+      <c r="Y40" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="7">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4">
         <v>53</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2">
         <v>66</v>
       </c>
@@ -3530,69 +3421,66 @@
       <c r="H41" s="2">
         <v>182</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>36</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="L41" s="2">
+        <v>90</v>
+      </c>
+      <c r="M41" s="2">
+        <v>32</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2">
+        <v>43</v>
+      </c>
+      <c r="P41" s="2">
+        <v>105</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>65</v>
+      </c>
+      <c r="R41" s="2">
+        <v>32</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2">
+        <v>65</v>
+      </c>
+      <c r="U41" s="2">
+        <v>37</v>
+      </c>
+      <c r="V41" s="2">
+        <v>66</v>
+      </c>
+      <c r="W41" s="2">
         <v>34</v>
       </c>
-      <c r="M41" s="2">
-        <v>90</v>
-      </c>
-      <c r="N41" s="2">
-        <v>32</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2">
-        <v>43</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>105</v>
-      </c>
-      <c r="R41" s="2">
-        <v>65</v>
-      </c>
-      <c r="S41" s="2">
-        <v>32</v>
-      </c>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2">
-        <v>65</v>
-      </c>
-      <c r="V41" s="2">
+      <c r="X41" s="2">
         <v>37</v>
       </c>
-      <c r="W41" s="2">
-        <v>66</v>
-      </c>
-      <c r="X41" s="2">
-        <v>34</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Y41" s="3">
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="7">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4">
         <v>60</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2">
         <v>195</v>
       </c>
@@ -3602,73 +3490,70 @@
       <c r="H42" s="2">
         <v>158</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <v>62</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L42" s="2">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="M42" s="2">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="N42" s="2">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O42" s="2">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="P42" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="Q42" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R42" s="2">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="S42" s="2">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="T42" s="2">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="U42" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="V42" s="2">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="W42" s="2">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="X42" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y42" s="2">
         <v>126</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Y42" s="3">
         <v>1867</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="7">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4">
         <v>53</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2">
         <v>86</v>
       </c>
@@ -3678,69 +3563,66 @@
       <c r="H43" s="2">
         <v>233</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <v>50</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L43" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="M43" s="2">
-        <v>116</v>
-      </c>
-      <c r="N43" s="2">
         <v>25</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2">
+        <v>96</v>
+      </c>
       <c r="P43" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="Q43" s="2">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="R43" s="2">
+        <v>42</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" s="2">
+        <v>44</v>
+      </c>
+      <c r="V43" s="2">
+        <v>35</v>
+      </c>
+      <c r="W43" s="2">
         <v>53</v>
       </c>
-      <c r="S43" s="2">
-        <v>42</v>
-      </c>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2">
-        <v>73</v>
-      </c>
-      <c r="V43" s="2">
-        <v>44</v>
-      </c>
-      <c r="W43" s="2">
-        <v>35</v>
-      </c>
       <c r="X43" s="2">
-        <v>53</v>
-      </c>
-      <c r="Y43" s="2">
         <v>60</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Y43" s="3">
         <v>1244</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4">
         <v>106</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="7">
-        <v>106</v>
-      </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2">
         <v>114</v>
       </c>
@@ -3750,73 +3632,70 @@
       <c r="H44" s="2">
         <v>167</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <v>88</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="L44" s="2">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="M44" s="2">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="N44" s="2">
+        <v>14</v>
+      </c>
+      <c r="O44" s="2">
         <v>62</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
+        <v>156</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>99</v>
+      </c>
+      <c r="R44" s="2">
+        <v>52</v>
+      </c>
+      <c r="S44" s="2">
         <v>14</v>
       </c>
-      <c r="P44" s="2">
-        <v>62</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>156</v>
-      </c>
-      <c r="R44" s="2">
-        <v>99</v>
-      </c>
-      <c r="S44" s="2">
-        <v>52</v>
-      </c>
       <c r="T44" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="U44" s="2">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="V44" s="2">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="W44" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="X44" s="2">
-        <v>102</v>
-      </c>
-      <c r="Y44" s="2">
         <v>122</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Y44" s="3">
         <v>1713</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="7">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4">
         <v>27</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2">
         <v>66</v>
       </c>
@@ -3826,67 +3705,64 @@
       <c r="H45" s="2">
         <v>160</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <v>26</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L45" s="2">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="M45" s="2">
-        <v>103</v>
-      </c>
-      <c r="N45" s="2">
         <v>26</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2">
+        <v>50</v>
+      </c>
       <c r="P45" s="2">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="Q45" s="2">
-        <v>104</v>
-      </c>
-      <c r="R45" s="2">
         <v>65</v>
       </c>
+      <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="T45" s="2">
+        <v>44</v>
+      </c>
       <c r="U45" s="2">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="V45" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W45" s="2">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="X45" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y45" s="2">
         <v>58</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Y45" s="3">
         <v>896</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="7">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4">
         <v>38</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2">
         <v>62</v>
       </c>
@@ -3896,63 +3772,60 @@
       <c r="H46" s="2">
         <v>150</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <v>26</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2">
         <v>17</v>
       </c>
       <c r="L46" s="2">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M46" s="2">
-        <v>92</v>
-      </c>
-      <c r="N46" s="2">
         <v>25</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2">
+        <v>50</v>
+      </c>
       <c r="P46" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="2">
-        <v>91</v>
-      </c>
-      <c r="R46" s="2">
         <v>65</v>
       </c>
+      <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
+      <c r="T46" s="2">
+        <v>36</v>
+      </c>
       <c r="U46" s="2">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="V46" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W46" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="X46" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y46" s="2">
         <v>55</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Y46" s="3">
         <v>830</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8">
+    <row r="47" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6">
         <v>3270</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="3">
         <v>3604</v>
       </c>
@@ -3962,61 +3835,141 @@
       <c r="H47" s="3">
         <v>6164</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="6">
         <v>2283</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="3">
-        <v>2142</v>
+        <v>2052</v>
       </c>
       <c r="L47" s="3">
-        <v>2052</v>
+        <v>3908</v>
       </c>
       <c r="M47" s="3">
-        <v>3908</v>
+        <v>1751</v>
       </c>
       <c r="N47" s="3">
-        <v>1751</v>
+        <v>572</v>
       </c>
       <c r="O47" s="3">
-        <v>572</v>
+        <v>2693</v>
       </c>
       <c r="P47" s="3">
-        <v>2693</v>
+        <v>5855</v>
       </c>
       <c r="Q47" s="3">
-        <v>5855</v>
+        <v>3409</v>
       </c>
       <c r="R47" s="3">
-        <v>3409</v>
+        <v>1556</v>
       </c>
       <c r="S47" s="3">
-        <v>1556</v>
+        <v>556</v>
       </c>
       <c r="T47" s="3">
-        <v>556</v>
+        <v>3411</v>
       </c>
       <c r="U47" s="3">
-        <v>3411</v>
+        <v>2120</v>
       </c>
       <c r="V47" s="3">
-        <v>2120</v>
+        <v>2344</v>
       </c>
       <c r="W47" s="3">
-        <v>2344</v>
+        <v>2876</v>
       </c>
       <c r="X47" s="3">
-        <v>2876</v>
+        <v>2943</v>
       </c>
       <c r="Y47" s="3">
-        <v>2943</v>
-      </c>
-      <c r="Z47" s="3">
         <v>55144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="D46:E46"/>
@@ -4024,89 +3977,6 @@
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
